--- a/Instruction_Analysis/wxz.xlsx
+++ b/Instruction_Analysis/wxz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91867\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pipeline-cpu\Instruction_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16846234-53B8-4983-B0C3-E0EFF0F90516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330B05BF-5543-4D80-B8C3-28D8FC3F785C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="7308" xr2:uid="{6E665FD8-5713-4F00-A2D0-66E80C41094E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>流水线指令设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,147 @@
   </si>
   <si>
     <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R形指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000(func:100000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000(func:100001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000(func:100101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000(func:100100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000(func:000000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000(func:000100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000(func:001000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rd ← rs+rt，将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值进行加法运算，结果保存到地址为rd的通用寄存器中。但是有一种特殊情况：如果加法运算溢出，那么会产生溢出异常，同时不保存结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令用法为：addu rd，rs，rt。
+指令作用为：rd ← rs+rt，将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值进行加法运算，结果保存到地址为rd的通用寄存器中。add指令的不同之处在于addu指令不进行溢出检查，总是将结果保存到目的寄存器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rd ← rs OR rt，将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值进行逻辑“或”运算，运算结果保存到地址为rd的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rd ← rs AND rt，将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值进行逻辑“与”运算，运算结果保存到地址为rd的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rd ← rt &lt;&lt; sa（logic），将地址为rt的通用寄存器的值向左移sa位，空出来的位置使用0填充，结果保存到地址为rd的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rd ← rt &lt;&lt; rs[4：0]（logic），将地址为rt的通用寄存器的值向左移位，空出来的位置使用0填充，结果保存到地址为rd的通用寄存器中。移位位数由地址为rs的寄存器值的第0-4bit确定。</t>
+  </si>
+  <si>
+    <t>指令作用为：if rs=rt then branch，将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值进行比较，如果相等，那么发生转移。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：if rs≠rt then branch，如果地址为rs的通用寄存器的值不等于地址为rt的通用寄存器的值，那么发生转移。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：pc ← rs，将地址为rs的通用寄存器的值赋给寄存器PC，作为新的指令地址。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：rd ← rs×rt，将地址为rs的通用寄存器的值与地址为rt的通用寄存器的值作为有符号数相乘，乘法结果的低32bit保存到地址为rd的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011100(func:000010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add $t1,$t2,$t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu $t1,$t2,$t3</t>
+  </si>
+  <si>
+    <t>and $t1,$t2,$t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sll $t1,$t2,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sllv $t1,$t2,t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or $t1,$t2,10</t>
+  </si>
+  <si>
+    <t>beq $t1,$t2,label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne $t1,$t2,label</t>
+  </si>
+  <si>
+    <t>jr $1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul $t1,$t2,$3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15:11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将立即数左移2位，与延迟槽指令的地址相加，得到转移目的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func字段区分指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func字段区分指令，不进行溢出检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,9 +536,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,11 +545,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,14 +878,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AA0B03-95AC-43D3-B9AF-D26D1BAC32DE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="I8" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="21" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
@@ -754,83 +898,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="17" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
@@ -855,7 +999,7 @@
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:24" ht="112.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -922,195 +1066,394 @@
       <c r="L5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" ht="91.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N6" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="122.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="L7" s="8"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N7" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="L8" s="8"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N8" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N9" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N10" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="81.599999999999994" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N11" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="11"/>
+      <c r="L12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="11"/>
+      <c r="L13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N14" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1126,7 +1469,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="14"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1142,7 +1485,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1158,7 +1501,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="14"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1174,7 +1517,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="14"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1190,7 +1533,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="14"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1206,7 +1549,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="14"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1222,7 +1565,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="14"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
